--- a/raw_data/KEEN ONE/Byrnes/2014/NE Shoals Entry 2014/NE_SHOALS_FISH.xlsx
+++ b/raw_data/KEEN ONE/Byrnes/2014/NE Shoals Entry 2014/NE_SHOALS_FISH.xlsx
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="155">
   <si>
     <t>Haddock</t>
   </si>
@@ -318,10 +318,6 @@
   </si>
   <si>
     <t>Lang</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>NW Appledore</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -688,7 +684,7 @@
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -750,6 +746,18 @@
       <sz val="12"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -768,10 +776,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -831,9 +841,11 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1167,7 +1179,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1191,71 +1203,71 @@
   <sheetData>
     <row r="1" spans="1:23" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="H1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="T1" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="W1" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -1278,7 +1290,7 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -1481,10 +1493,10 @@
         <v>41838</v>
       </c>
       <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
         <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
       </c>
       <c r="G6" t="s">
         <v>30</v>
@@ -1654,272 +1666,272 @@
     </row>
     <row r="7061" spans="23:23">
       <c r="W7061" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7062" spans="23:23">
       <c r="W7062" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7063" spans="23:23">
       <c r="W7063" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7064" spans="23:23">
       <c r="W7064" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7065" spans="23:23">
       <c r="W7065" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7066" spans="23:23">
       <c r="W7066" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7067" spans="23:23">
       <c r="W7067" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7068" spans="23:23">
       <c r="W7068" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7069" spans="23:23">
       <c r="W7069" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7070" spans="23:23">
       <c r="W7070" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7071" spans="23:23">
       <c r="W7071" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7072" spans="23:23">
       <c r="W7072" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7073" spans="23:23">
       <c r="W7073" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7074" spans="23:23">
       <c r="W7074" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7075" spans="23:23">
       <c r="W7075" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7076" spans="23:23">
       <c r="W7076" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7077" spans="23:23">
       <c r="W7077" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7078" spans="23:23">
       <c r="W7078" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7079" spans="23:23">
       <c r="W7079" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7080" spans="23:23">
       <c r="W7080" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7081" spans="23:23">
       <c r="W7081" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7082" spans="23:23">
       <c r="W7082" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7083" spans="23:23">
       <c r="W7083" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7084" spans="23:23">
       <c r="W7084" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7085" spans="23:23">
       <c r="W7085" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7086" spans="23:23">
       <c r="W7086" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7087" spans="23:23">
       <c r="W7087" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7088" spans="23:23">
       <c r="W7088" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7089" spans="23:23">
       <c r="W7089" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7090" spans="23:23">
       <c r="W7090" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7091" spans="23:23">
       <c r="W7091" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7092" spans="23:23">
       <c r="W7092" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7093" spans="23:23">
       <c r="W7093" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7094" spans="23:23">
       <c r="W7094" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7095" spans="23:23">
       <c r="W7095" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7096" spans="23:23">
       <c r="W7096" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7097" spans="23:23">
       <c r="W7097" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7098" spans="23:23">
       <c r="W7098" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7099" spans="23:23">
       <c r="W7099" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7100" spans="23:23">
       <c r="W7100" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7101" spans="23:23">
       <c r="W7101" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7102" spans="23:23">
       <c r="W7102" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7103" spans="23:23">
       <c r="W7103" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7104" spans="23:23">
       <c r="W7104" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7105" spans="23:23">
       <c r="W7105" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7106" spans="23:23">
       <c r="W7106" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7107" spans="23:23">
       <c r="W7107" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7108" spans="23:23">
       <c r="W7108" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7109" spans="23:23">
       <c r="W7109" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7110" spans="23:23">
       <c r="W7110" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7111" spans="23:23">
       <c r="W7111" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7112" spans="23:23">
       <c r="W7112" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7113" spans="23:23">
       <c r="W7113" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7114" spans="23:23">
       <c r="W7114" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1939,6 +1951,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1980,82 +1993,82 @@
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>115</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>116</v>
       </c>
       <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>118</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>119</v>
       </c>
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>122</v>
       </c>
       <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>125</v>
       </c>
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>127</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>128</v>
       </c>
       <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>130</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>131</v>
       </c>
       <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>22</v>
@@ -2064,93 +2077,93 @@
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>135</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>136</v>
       </c>
       <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>138</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>139</v>
       </c>
       <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>141</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>142</v>
       </c>
       <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>145</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>147</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>148</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>149</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>150</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>151</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>152</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>153</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>0</v>
@@ -2180,10 +2193,10 @@
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="20"/>
